--- a/NformTester/NformTester/Keywordscripts/400.20.20_ApplicationNformToolsInsatllDeviceTypeDefinitions.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.20.20_ApplicationNformToolsInsatllDeviceTypeDefinitions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -3634,25 +3634,21 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>;Open Nform Tools install DTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>;Open Nform Tools install DTD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://test.com</t>
   </si>
   <si>
@@ -3668,6 +3664,10 @@
   </si>
   <si>
     <t>"test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4639,7 +4639,7 @@
   <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4769,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -4800,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
@@ -4823,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>19</v>
@@ -4854,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>19</v>
@@ -4883,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>714</v>
@@ -4912,7 +4912,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>714</v>
@@ -4943,7 +4943,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>741</v>
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4972,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>741</v>
@@ -5001,10 +5001,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F12" s="20">
         <v>47</v>
@@ -5028,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>745</v>
@@ -5057,7 +5057,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>745</v>
@@ -5086,7 +5086,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>741</v>
@@ -5098,7 +5098,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5117,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>741</v>
@@ -5129,10 +5129,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>806</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>807</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>741</v>
@@ -5181,7 +5181,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>714</v>
@@ -5210,7 +5210,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>714</v>
